--- a/individual_results/avey/145.xlsx
+++ b/individual_results/avey/145.xlsx
@@ -561,7 +561,7 @@
         <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="F2" t="n">
         <v>0.5</v>
@@ -579,7 +579,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>0.2307692307692308</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P2" t="n">
         <v>0.25</v>
@@ -600,7 +600,7 @@
         <v>0.4</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S2" t="n">
         <v>0.3333333333333333</v>
@@ -634,7 +634,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0.6666666666666666</v>
@@ -664,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P3" t="n">
         <v>0.6666666666666666</v>
@@ -673,7 +673,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S3" t="n">
         <v>0.3333333333333333</v>
@@ -707,7 +707,7 @@
         <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
         <v>0.6666666666666666</v>
@@ -720,9 +720,7 @@
       <c r="J4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>0.8</v>
       </c>
@@ -733,7 +731,7 @@
         <v>0.375</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7272727272727273</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="P4" t="n">
         <v>0.3636363636363636</v>
@@ -742,7 +740,7 @@
         <v>0.5</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S4" t="n">
         <v>0.3333333333333333</v>
@@ -776,7 +774,7 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8823529411764706</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F5" t="n">
         <v>0.8333333333333334</v>
@@ -789,9 +787,7 @@
       <c r="J5" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="K5" t="n">
-        <v>0.3846153846153846</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>0.7142857142857142</v>
       </c>
@@ -802,7 +798,7 @@
         <v>0.6000000000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P5" t="n">
         <v>0.5</v>
@@ -811,7 +807,7 @@
         <v>0.5882352941176471</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S5" t="n">
         <v>0.3333333333333333</v>
@@ -845,7 +841,7 @@
         <v>0.5766666455144387</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9359826917490579</v>
+        <v>0.8124242481930318</v>
       </c>
       <c r="F6" t="n">
         <v>0.9721212198129313</v>
@@ -863,7 +859,7 @@
         <v>0.5234343216411389</v>
       </c>
       <c r="K6" t="n">
-        <v>0.319393943239799</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0.3865656572066332</v>
@@ -875,7 +871,7 @@
         <v>0.5636640860885236</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3687617854475846</v>
+        <v>0.1711413411274224</v>
       </c>
       <c r="P6" t="n">
         <v>0.5766666455144387</v>
@@ -884,7 +880,7 @@
         <v>0.5937604413238652</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4790909148596985</v>
+        <v>0.1596969716198995</v>
       </c>
       <c r="S6" t="n">
         <v>0.1596969716198995</v>
